--- a/empty.xlsx
+++ b/empty.xlsx
@@ -134,10 +134,10 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E24"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
